--- a/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
+++ b/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Anexos Técnicos</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Notebook Lenovo Ideapad 320</t>
   </si>
   <si>
-    <t>Monitor</t>
-  </si>
-  <si>
     <t>Cable fibra optica 2 fibras 5km 6000 Usd</t>
   </si>
   <si>
@@ -79,12 +76,66 @@
   </si>
   <si>
     <t>Nexxt Bobina De Cable Utp Cat 6 300Mts Cable De Red</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-450137723-racks-rack-de-piso-42u-800x1000-mm-puerta-hiper-combo-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Racks - Rack De Piso 42u 800x1000 Mm Puerta Hiper Combo</t>
+  </si>
+  <si>
+    <t>http://www.fastimport.uy/productos/5366/nexxt-bobina-de-cable-utp-cat-6-300mts-cable-de-red</t>
+  </si>
+  <si>
+    <t>http://www.fastimport.uy/productos/8244/nexxt-bobina-de-cable-utp-cat-5-300mts-cat5-azul-cable-de-red</t>
+  </si>
+  <si>
+    <t>https://www.fastimport.uy/productos/20557/intellinet-conector-rj45-5e-stan-fco-100-unidades</t>
+  </si>
+  <si>
+    <t>https://www.fastimport.uy/productos/20618/intellinet-jack-rj45-cat-5e-azul</t>
+  </si>
+  <si>
+    <t>https://www.fastimport.uy/productos/29125/intelbras-telefono-ip-tip-125</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-459946850-telefono-ip-grandstream-inalambrico-dp-720-_JM</t>
+  </si>
+  <si>
+    <t>Telefono Ip Grandstream Inalambrico Dp-720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor 19 Led Viewsonic Va1903a </t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-446326206-monitor-19-led-viewsonic-va1903a-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Electricista peon, sueldo entre 27.000 a 33.000 pesos.</t>
+  </si>
+  <si>
+    <t>Oficial Electricista, sueldo entre 32.000 a 45.000 pesos.</t>
+  </si>
+  <si>
+    <t>Electricista Especializado, sueldo entre 41.000 a 57.000 pesos.</t>
+  </si>
+  <si>
+    <t>Ingeniero Electricista, sueldo entre 56.000 a 92.000 pesos.</t>
+  </si>
+  <si>
+    <t>https://www.electricistamontevideo24horas.com/cuanto-gana-un-electricista-montevideo-uruguay/</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-460348001-aire-acondicionado-rooftop-de-60000-btu-_JM</t>
+  </si>
+  <si>
+    <t>Aire Acondicionado Rooftop De 60000 Btu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -407,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,24 +466,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="118.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -447,10 +501,14 @@
         <v>5000</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F23" si="0">+E2*D2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -461,14 +519,18 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D20" si="0">+B3/C3</f>
+        <f t="shared" ref="D3:D27" si="1">+B3/C3</f>
         <v>320</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -479,12 +541,18 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -495,12 +563,18 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -511,12 +585,18 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>610</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -527,12 +607,18 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -543,12 +629,18 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -559,12 +651,18 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -575,12 +673,18 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3685</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -591,12 +695,18 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1068</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>32040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -607,11 +717,18 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>877</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -622,13 +739,20 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>899</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>125</v>
@@ -637,99 +761,353 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>180</v>
+        <v>2800</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
+        <v>180</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>89</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
         <v>6000</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>5000</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="E18" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
         <f>14</f>
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>100</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E19" s="2">
+        <v>400</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B21" s="2">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E21" s="2">
+        <f>40*300</f>
+        <v>12000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>130</v>
-      </c>
-      <c r="C19">
+      <c r="B22" s="2">
+        <v>195</v>
+      </c>
+      <c r="C22">
         <v>300</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.65</v>
+      </c>
+      <c r="E22">
+        <f>40*50</f>
+        <v>2000</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
-        <v>195</v>
-      </c>
-      <c r="C20">
-        <v>300</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.65</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <f>33000/32</f>
+        <v>1031.25</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>5.15625</v>
+      </c>
+      <c r="E24" s="2">
+        <v>600</v>
+      </c>
+      <c r="F24">
+        <f>+E24*D24</f>
+        <v>3093.75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <f>45000/32</f>
+        <v>1406.25</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7.03125</v>
+      </c>
+      <c r="E25" s="2">
+        <v>600</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:F27" si="2">+E25*D25</f>
+        <v>4218.75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <f>57000/32</f>
+        <v>1781.25</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>8.90625</v>
+      </c>
+      <c r="E26" s="2">
+        <v>600</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>5343.75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <f>92000/32</f>
+        <v>2875</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>14.375</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>17250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>SUM(F2:F27)</f>
+        <v>240543.25</v>
       </c>
     </row>
   </sheetData>

--- a/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
+++ b/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Anexos Técnicos</t>
   </si>
@@ -130,13 +130,19 @@
   </si>
   <si>
     <t>Aire Acondicionado Rooftop De 60000 Btu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware vSphere </t>
+  </si>
+  <si>
+    <t>https://store.vmware.com/store?Action=cat&amp;Locale=es_MX&amp;SiteID=vmware&amp;categoryID=66412200&amp;src=eBIZ_StoreHome_Featured_EssentialsPlus_Buy_LA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +163,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,8 +207,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D27" si="1">+B3/C3</f>
+        <f t="shared" ref="D3:D28" si="1">+B3/C3</f>
         <v>320</v>
       </c>
       <c r="E3" s="2">
@@ -1045,7 +1071,7 @@
         <v>600</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F27" si="2">+E25*D25</f>
+        <f t="shared" ref="F25:F28" si="2">+E25*D25</f>
         <v>4218.75</v>
       </c>
       <c r="G25" t="s">
@@ -1105,9 +1131,28 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>5619</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>5619</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
       <c r="F28">
-        <f>SUM(F2:F27)</f>
-        <v>240543.25</v>
+        <f t="shared" si="2"/>
+        <v>11238</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1115,8 +1160,9 @@
     <hyperlink ref="A1" location="_bxhw5sdt734k" display="_bxhw5sdt734k"/>
     <hyperlink ref="A12" location="_en13wbc00q8b" display="_en13wbc00q8b"/>
     <hyperlink ref="A13" location="_rrfuzfe3kqd" display="_rrfuzfe3kqd"/>
+    <hyperlink ref="G28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
+++ b/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Anexos Técnicos</t>
   </si>
@@ -136,13 +136,53 @@
   </si>
   <si>
     <t>https://store.vmware.com/store?Action=cat&amp;Locale=es_MX&amp;SiteID=vmware&amp;categoryID=66412200&amp;src=eBIZ_StoreHome_Featured_EssentialsPlus_Buy_LA</t>
+  </si>
+  <si>
+    <t>http://www.newtekuy.com/catalog/microsoft-windows-server-2012-standard-bits-p7305338-p-8031.html?osCsid=ef055441bc2db63e4c49989dd5c9aeb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Server 2012 Standard 64 bits </t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-452845295-impresora-laser-color-hp-pro-m452dn-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Impresora Laser Color Hp Pro M452dn</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-450896587-impresora-laser-ricoh-407809-mp-501spf-mono-laser-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Impresora Laser Ricoh 407809 Mp 501spf Mono Laser</t>
+  </si>
+  <si>
+    <t>Hp Laserjet Pro M402dne - Impresora - Monocromo - A Dos C</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-449819519-hp-laserjet-pro-m402dne-impresora-monocromo-a-dos-c-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-452390334-ups-rackeable-apc-smart-2200va-lcd-smt2200rmi2u-_JM?quantity=1</t>
+  </si>
+  <si>
+    <t>Ups Rackeable Apc Smart 2200va Lcd - Smt2200rmi2u</t>
+  </si>
+  <si>
+    <t>https://articulo.mercadolibre.com.uy/MLU-452388254-generador-15-kw-free-one-automatico-gas-oil-_JM</t>
+  </si>
+  <si>
+    <t>Generador 15 Kw Free-one Automatico Gas Oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +217,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF003333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,11 +250,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -211,9 +267,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,7 +367,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -492,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,16 +563,18 @@
     <col min="1" max="1" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="118.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="6" customWidth="1"/>
+    <col min="8" max="8" width="118.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -529,12 +591,12 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f t="shared" ref="F2:F23" si="0">+E2*D2</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -545,18 +607,18 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="1">+B3/C3</f>
+        <f t="shared" ref="D3:D34" si="1">+B3/C3</f>
         <v>320</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -573,12 +635,12 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -595,12 +657,12 @@
       <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -617,12 +679,12 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>1830</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -639,12 +701,12 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -661,12 +723,12 @@
       <c r="E8" s="2">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -683,12 +745,12 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>9600</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -705,12 +767,12 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>7370</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -727,12 +789,12 @@
       <c r="E11" s="2">
         <v>30</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>32040</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -749,12 +811,12 @@
       <c r="E12" s="2">
         <v>50</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>43850</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -771,12 +833,12 @@
       <c r="E13" s="2">
         <v>50</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>44950</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -793,15 +855,15 @@
       <c r="E14" s="2">
         <v>80</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -818,15 +880,15 @@
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -843,15 +905,15 @@
       <c r="E16" s="2">
         <v>100</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -868,15 +930,15 @@
       <c r="E17" s="2">
         <v>30</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>2670</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -893,12 +955,12 @@
       <c r="E18" s="2">
         <v>6000</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -916,15 +978,15 @@
       <c r="E19" s="2">
         <v>400</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>56.000000000000007</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -941,15 +1003,15 @@
       <c r="E20" s="2">
         <v>300</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -967,15 +1029,15 @@
         <f>40*300</f>
         <v>12000</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -993,15 +1055,15 @@
         <f>40*50</f>
         <v>2000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1018,15 +1080,15 @@
       <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1044,15 +1106,19 @@
       <c r="E24" s="2">
         <v>600</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f>+E24*D24</f>
         <v>3093.75</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6">
+        <f>+F24*7.5/100</f>
+        <v>232.03125</v>
+      </c>
+      <c r="H24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1070,15 +1136,19 @@
       <c r="E25" s="2">
         <v>600</v>
       </c>
-      <c r="F25">
-        <f t="shared" ref="F25:F28" si="2">+E25*D25</f>
+      <c r="F25" s="6">
+        <f t="shared" ref="F25:F34" si="2">+E25*D25</f>
         <v>4218.75</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="6">
+        <f t="shared" ref="G25:G27" si="3">+F25*7.5/100</f>
+        <v>316.40625</v>
+      </c>
+      <c r="H25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1096,15 +1166,19 @@
       <c r="E26" s="2">
         <v>600</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>5343.75</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
+        <v>400.78125</v>
+      </c>
+      <c r="H26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1122,15 +1196,19 @@
       <c r="E27" s="2">
         <v>1200</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>17250</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
+        <v>1293.75</v>
+      </c>
+      <c r="H27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1147,12 +1225,168 @@
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>11238</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1066</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1066</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
+        <v>5330</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>630</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>4775</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>4775</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="2"/>
+        <v>4775</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>463</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
+        <v>926</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>1079</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1079</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
+        <v>3237</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8950</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>8950</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
+        <v>8950</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="6">
+        <f>SUM(F2:F34)</f>
+        <v>275629.25</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1394,7 @@
     <hyperlink ref="A1" location="_bxhw5sdt734k" display="_bxhw5sdt734k"/>
     <hyperlink ref="A12" location="_en13wbc00q8b" display="_en13wbc00q8b"/>
     <hyperlink ref="A13" location="_rrfuzfe3kqd" display="_rrfuzfe3kqd"/>
-    <hyperlink ref="G28" r:id="rId1"/>
+    <hyperlink ref="H28" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
+++ b/proyecto final/Defensa/Infraestructura/Presupuesto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto" sheetId="7" r:id="rId1"/>
@@ -742,54 +742,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1736,6 +1688,30 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2212,6 +2188,30 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3103,59 +3103,59 @@
   <tableColumns count="8">
     <tableColumn id="1" name="Equipos" dataDxfId="70"/>
     <tableColumn id="2" name="Fabricante" dataDxfId="69"/>
-    <tableColumn id="3" name="Disponibilidad" dataDxfId="1"/>
-    <tableColumn id="5" name="Versión" dataDxfId="68"/>
-    <tableColumn id="6" name="Procesador" dataDxfId="67"/>
-    <tableColumn id="7" name="Utilidad" dataDxfId="66"/>
-    <tableColumn id="8" name="Equipo" dataDxfId="65"/>
-    <tableColumn id="9" name="Replica Tambo 2" dataDxfId="64"/>
+    <tableColumn id="3" name="Disponibilidad" dataDxfId="68"/>
+    <tableColumn id="5" name="Versión" dataDxfId="67"/>
+    <tableColumn id="6" name="Procesador" dataDxfId="66"/>
+    <tableColumn id="7" name="Utilidad" dataDxfId="65"/>
+    <tableColumn id="8" name="Equipo" dataDxfId="64"/>
+    <tableColumn id="9" name="Replica Tambo 2" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A4:H6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A4:H6" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A4:H6"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Equipos" dataDxfId="61"/>
-    <tableColumn id="2" name="Fabricante" dataDxfId="60"/>
-    <tableColumn id="3" name="Disponibilidad" dataDxfId="59"/>
-    <tableColumn id="5" name="Versión" dataDxfId="58"/>
-    <tableColumn id="6" name="Procesador" dataDxfId="57"/>
-    <tableColumn id="7" name="Utilidad" dataDxfId="56"/>
-    <tableColumn id="8" name="Equipo" dataDxfId="55"/>
-    <tableColumn id="9" name="Contrato privado" dataDxfId="54"/>
+    <tableColumn id="1" name="Equipos" dataDxfId="60"/>
+    <tableColumn id="2" name="Fabricante" dataDxfId="59"/>
+    <tableColumn id="3" name="Disponibilidad" dataDxfId="58"/>
+    <tableColumn id="5" name="Versión" dataDxfId="57"/>
+    <tableColumn id="6" name="Procesador" dataDxfId="56"/>
+    <tableColumn id="7" name="Utilidad" dataDxfId="55"/>
+    <tableColumn id="8" name="Equipo" dataDxfId="54"/>
+    <tableColumn id="9" name="Contrato privado" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla14" displayName="Tabla14" ref="A17:H22" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla14" displayName="Tabla14" ref="A17:H22" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A17:H22"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Equipos" dataDxfId="51"/>
-    <tableColumn id="2" name="Fabricante" dataDxfId="50"/>
-    <tableColumn id="3" name="Disponibilidad" dataDxfId="0"/>
-    <tableColumn id="5" name="Versión" dataDxfId="49"/>
-    <tableColumn id="6" name="Procesador" dataDxfId="48"/>
-    <tableColumn id="7" name="Utilidad" dataDxfId="47"/>
-    <tableColumn id="8" name="Equipo" dataDxfId="46"/>
-    <tableColumn id="9" name="Replica Tambo 1" dataDxfId="45"/>
+    <tableColumn id="1" name="Equipos" dataDxfId="50"/>
+    <tableColumn id="2" name="Fabricante" dataDxfId="49"/>
+    <tableColumn id="3" name="Disponibilidad" dataDxfId="48"/>
+    <tableColumn id="5" name="Versión" dataDxfId="47"/>
+    <tableColumn id="6" name="Procesador" dataDxfId="46"/>
+    <tableColumn id="7" name="Utilidad" dataDxfId="45"/>
+    <tableColumn id="8" name="Equipo" dataDxfId="44"/>
+    <tableColumn id="9" name="Replica Tambo 1" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A2:D35" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="Millares" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A2:D35" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="Millares" dataCellStyle="Millares">
   <autoFilter ref="A2:D34"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Producto" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" name="Precio Unitario" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Millares"/>
-    <tableColumn id="3" name="Cantidad" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Millares">
+    <tableColumn id="1" name="Producto" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" name="Precio Unitario" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Millares"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Millares"/>
+    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Millares">
       <calculatedColumnFormula>+C3*B3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3164,13 +3164,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A2:D23" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" headerRowCellStyle="Millares" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A2:D23" totalsRowCount="1" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" headerRowCellStyle="Millares" dataCellStyle="Millares">
   <autoFilter ref="A2:D22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Producto" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="2" name="Precio Unitario" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Millares"/>
-    <tableColumn id="3" name="Cantidad" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Millares">
+    <tableColumn id="1" name="Producto" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="Precio Unitario" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Millares"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="Millares"/>
+    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Millares">
       <calculatedColumnFormula>+B3*C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3179,13 +3179,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A2:D26" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Millares" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A2:D26" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18" headerRowCellStyle="Millares" dataCellStyle="Millares">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Producto" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="Precio Unitario" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Millares"/>
-    <tableColumn id="3" name="Cantidad" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Millares">
+    <tableColumn id="1" name="Producto" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="Precio Unitario" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Millares"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Millares"/>
+    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Millares">
       <calculatedColumnFormula>+B3*C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3194,13 +3194,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A2:D26" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Millares" dataCellStyle="Millares">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A2:D26" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Millares" dataCellStyle="Millares">
   <autoFilter ref="A2:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Anexos Técnicos" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Precio Unitario" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Millares"/>
-    <tableColumn id="3" name="Cantidad" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Millares"/>
-    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Millares">
+    <tableColumn id="1" name="Anexos Técnicos" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Precio Unitario" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Millares"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Millares"/>
+    <tableColumn id="4" name="Importe" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Millares">
       <calculatedColumnFormula>+B3*C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3476,7 +3476,7 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5783,7 +5783,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
